--- a/src/main/webapp/sql/import_excel/호텔 리스트.xlsx
+++ b/src/main/webapp/sql/import_excel/호텔 리스트.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>ST_ID</t>
   </si>
@@ -118,13 +118,68 @@
   </si>
   <si>
     <t>이 호텔은 쓰쿠바 익스프레스 노선의 아사쿠사역과 연결되어 있습니다. 주변 관광지로는 도쿄에서 가장 오래된 사찰인 센소지가 도보 6분, 도쿄스카이트리가 차로 10분 거리에 있습니다. 또한, 하네다 공항까지는 차로 30분, 나리타 공항까지는 1시간이 소요됩니다.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4:00</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5:00</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11:00</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -146,6 +201,11 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -177,8 +237,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -465,7 +525,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -524,11 +584,11 @@
       <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.45833333333333331</v>
+      <c r="H2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -544,20 +604,20 @@
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.5</v>
+      <c r="H3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -573,7 +633,7 @@
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -582,11 +642,11 @@
       <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.45833333333333331</v>
+      <c r="H4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -611,11 +671,11 @@
       <c r="G5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.45833333333333331</v>
+      <c r="H5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -640,11 +700,11 @@
       <c r="G6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.45833333333333331</v>
+      <c r="H6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -669,11 +729,11 @@
       <c r="G7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.5</v>
+      <c r="H7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
